--- a/flows/COPJ_fund_flow_data.xlsx
+++ b/flows/COPJ_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3165,6 +3165,126 @@
         <v>0.1731912</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
